--- a/NformTester/NformTester/Keywordscripts/600.10.30.90_DataLoggingSettingsOnDevicePropertiesAndOnTrends.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.90_DataLoggingSettingsOnDevicePropertiesAndOnTrends.xlsx
@@ -1237,7 +1237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7664" uniqueCount="858">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3833,8 +3833,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -3978,15 +3985,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4034,10 +4044,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -4360,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5047,6 +5062,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>857</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>
